--- a/assets/templates/RS0005-template.a205.xlsx
+++ b/assets/templates/RS0005-template.a205.xlsx
@@ -10,6 +10,7 @@
     <sheet name="RS0005" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="drive_representation" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="performance_map" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="performance_map0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +20,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,24 +30,57 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="14"/>
     </font>
     <font>
       <b val="1"/>
     </font>
+    <font/>
     <font>
+      <b val="1"/>
       <color rgb="000070C0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00808B96"/>
+        <bgColor rgb="00808B96"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000529B"/>
+        <bgColor rgb="0000529B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0001AED8"/>
+        <bgColor rgb="0001AED8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFFF"/>
+        <bgColor rgb="00FFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,27 +88,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle hidden="0" name="Title" xfId="1"/>
+    <cellStyle hidden="0" name="Heading" xfId="2"/>
+    <cellStyle hidden="0" name="Schema" xfId="3"/>
+    <cellStyle hidden="0" name="Value" xfId="4"/>
+    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
@@ -86,97 +148,112 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>ASHRAE 205 standard version</t>
+        <t>ASHRAE 205 schema version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
-        <t>ASHRAE 205 schema version</t>
+        <t>Representation specification identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6" shapeId="0">
       <text>
-        <t>Representation specification identifier</t>
+        <t>Free-form description of equipment (suitable for display)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B7" shapeId="0">
       <text>
-        <t>Free-form description of equipment (suitable for display)</t>
+        <t>Unique equipment identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B8" shapeId="0">
       <text>
-        <t>Unique equipment identifier</t>
+        <t>Date of publication</t>
       </text>
     </comment>
     <comment authorId="0" ref="B9" shapeId="0">
       <text>
-        <t>Date of publication</t>
+        <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
-        <t>Integer version identifier for the data in the representation</t>
+        <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B11" shapeId="0">
       <text>
-        <t>Free-form identification of the source of this data</t>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B12" shapeId="0">
       <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B13" shapeId="0">
-      <text>
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A14" shapeId="0">
+      <text>
+        <t>Data group describing product and rating information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A15" shapeId="0">
+      <text>
+        <t>Data group describing product information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B16" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B17" shapeId="0">
       <text>
-        <t>Name of the manufacturer</t>
+        <t>Model number</t>
       </text>
     </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Model number</t>
+        <t>Input voltage</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Input voltage</t>
+        <t>Input frequency</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Input frequency</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
-      <text>
         <t>Number of poles</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A21" shapeId="0">
+      <text>
+        <t>Data group containing performance information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
+      <text>
+        <t>Maximum operational input power to the motor</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B23" shapeId="0">
       <text>
-        <t>Maximum operational input power to the motor</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
-      <text>
         <t>Power draw when motor is not operating</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A24" shapeId="0">
+      <text>
+        <t>The corresponding Standard 205 drive representation</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A25" shapeId="0">
-      <text>
-        <t>Base schema for ASHRAE 205 representations</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A26" shapeId="0">
       <text>
         <t>Data group describing motor performance when operating</t>
       </text>
@@ -191,77 +268,97 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>ASHRAE 205 standard version</t>
+        <t>ASHRAE 205 schema version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
-        <t>ASHRAE 205 schema version</t>
+        <t>Representation specification identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B6" shapeId="0">
       <text>
-        <t>Representation specification identifier</t>
+        <t>Free-form description of equipment (suitable for display)</t>
       </text>
     </comment>
     <comment authorId="0" ref="B7" shapeId="0">
       <text>
-        <t>Free-form description of equipment (suitable for display)</t>
+        <t>Unique equipment identifier</t>
       </text>
     </comment>
     <comment authorId="0" ref="B8" shapeId="0">
       <text>
-        <t>Unique equipment identifier</t>
+        <t>Date of publication</t>
       </text>
     </comment>
     <comment authorId="0" ref="B9" shapeId="0">
       <text>
-        <t>Date of publication</t>
+        <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
-        <t>Integer version identifier for the data in the representation</t>
+        <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B11" shapeId="0">
       <text>
-        <t>Free-form identification of the source of this data</t>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
     <comment authorId="0" ref="B12" shapeId="0">
       <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B13" shapeId="0">
-      <text>
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A14" shapeId="0">
+      <text>
+        <t>Data group describing product and rating information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A15" shapeId="0">
+      <text>
+        <t>Data group describing product information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B16" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B17" shapeId="0">
       <text>
-        <t>Name of the manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
-      <text>
         <t>Model number</t>
       </text>
     </comment>
+    <comment authorId="0" ref="A18" shapeId="0">
+      <text>
+        <t>Data group containing performance information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Maximum power draw of the drive</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Maximum power draw of the drive</t>
+        <t>Power draw when the motor is not operating</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Power draw when the motor is not operating</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A23" shapeId="0">
+        <t>Method used to cool the electronic drive.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A22" shapeId="0">
       <text>
         <t>Data group describing drive performance when operating</t>
       </text>
@@ -271,6 +368,36 @@
 </file>
 
 <file path=xl/comments/comment3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2" shapeId="0">
+      <text>
+        <t>Data group describing grid variables for drive performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B2" shapeId="0">
+      <text>
+        <t>Data group describing lookup variables for drive performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A3" shapeId="0">
+      <text>
+        <t>Power delivered to the motor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>Efficiency of drive</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ASHRAE 205</author>
@@ -594,7 +721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:AZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,349 +729,503 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="50"/>
-    <col customWidth="1" max="3" min="3" width="31"/>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="50"/>
+    <col customWidth="1" max="3" min="3" style="1" width="31"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>RS0005: Motor</t>
         </is>
       </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Data Group</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Data Element</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ASHRAE205</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>standard_version</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>RS_ID</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>RS0005</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>RS_ID</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>RS0005</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>data_timestamp</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>data_source</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>disclaimer</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n"/>
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n"/>
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.description.product_information</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        manufacturer</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        model_number</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            model_number</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        input_voltage</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            input_voltage</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        input_frequency</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            input_frequency</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        number_of_poles</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="6" t="n"/>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            number_of_poles</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="n"/>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum_power</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        maximum_power</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    standby_power</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        standby_power</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.drive_representation</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>$drive_representation</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="6" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>$drive_representation</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.performance_map</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>$performance_map</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="n"/>
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map0</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
       <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -956,7 +1237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,292 +1245,440 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="50"/>
-    <col customWidth="1" max="3" min="3" width="31"/>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="50"/>
+    <col customWidth="1" max="3" min="3" style="1" width="31"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.drive_representation</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Data Group</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Data Element</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Required</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="n"/>
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        standard_version</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                standard_version</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        schema_version</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                schema_version</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        RS_ID</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>RS0006</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                RS_ID</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>RS0006</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        description</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                description</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ID</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                ID</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        data_timestamp</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                data_timestamp</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        data_version</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                data_version</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        data_source</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="6" t="n"/>
     </row>
     <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                data_source</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="n"/>
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        disclaimer</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="6" t="n"/>
     </row>
     <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                disclaimer</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="n"/>
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        notes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                notes</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="n"/>
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.drive_representation.RS_instance</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n"/>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.drive_representation.RS_instance.description</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="6" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.description</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="n"/>
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.drive_representation.RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="6" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.description.product_information</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="n"/>
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    manufacturer</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                            manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    model_number</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                            model_number</t>
-        </is>
-      </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.drive_representation.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="n"/>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="4" t="n"/>
+      <c r="E18" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                maximum_power</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                        maximum_power</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="A20" s="4" t="n"/>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                standby_power</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                        standby_power</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                cooling_method</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="4" t="n"/>
+      <c r="E21" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                        cooling_method</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance.performance_map</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.drive_representation.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1257,16 +1686,19 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
       <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
       <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
@@ -1278,66 +1710,358 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance.performance_map.grid_variables</t>
-        </is>
-      </c>
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.drive_representation.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="7" t="inlineStr">
         <is>
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>output_power</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="inlineStr">
+        <is>
+          <t>efficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" style="1" width="13"/>
+    <col customWidth="1" max="2" min="2" style="1" width="13"/>
+    <col customWidth="1" max="3" min="3" style="1" width="13"/>
+    <col customWidth="1" max="4" min="4" style="1" width="13"/>
+    <col customWidth="1" max="5" min="5" style="1" width="13"/>
+    <col customWidth="1" max="6" min="6" style="1" width="13"/>
+    <col customWidth="1" max="7" min="7" style="1" width="13"/>
+    <col customWidth="1" max="8" min="8" style="1" width="13"/>
+    <col customWidth="1" max="9" min="9" style="1" width="13"/>
+    <col customWidth="1" max="10" min="10" style="1" width="13"/>
+    <col customWidth="1" max="11" min="11" style="1" width="13"/>
+    <col customWidth="1" max="12" min="12" style="1" width="13"/>
+    <col customWidth="1" max="13" min="13" style="1" width="13"/>
+    <col customWidth="1" max="14" min="14" style="1" width="13"/>
+    <col customWidth="1" max="15" min="15" style="1" width="13"/>
+    <col customWidth="1" max="16" min="16" style="1" width="13"/>
+    <col customWidth="1" max="17" min="17" style="1" width="13"/>
+    <col customWidth="1" max="18" min="18" style="1" width="13"/>
+    <col customWidth="1" max="19" min="19" style="1" width="13"/>
+    <col customWidth="1" max="20" min="20" style="1" width="13"/>
+    <col customWidth="1" max="21" min="21" style="1" width="13"/>
+    <col customWidth="1" max="22" min="22" style="1" width="13"/>
+    <col customWidth="1" max="23" min="23" style="1" width="13"/>
+    <col customWidth="1" max="24" min="24" style="1" width="13"/>
+    <col customWidth="1" max="25" min="25" style="1" width="13"/>
+    <col customWidth="1" max="26" min="26" style="1" width="13"/>
+    <col customWidth="1" max="27" min="27" style="1" width="13"/>
+    <col customWidth="1" max="28" min="28" style="1" width="13"/>
+    <col customWidth="1" max="29" min="29" style="1" width="13"/>
+    <col customWidth="1" max="30" min="30" style="1" width="13"/>
+    <col customWidth="1" max="31" min="31" style="1" width="13"/>
+    <col customWidth="1" max="32" min="32" style="1" width="13"/>
+    <col customWidth="1" max="33" min="33" style="1" width="13"/>
+    <col customWidth="1" max="34" min="34" style="1" width="13"/>
+    <col customWidth="1" max="35" min="35" style="1" width="13"/>
+    <col customWidth="1" max="36" min="36" style="1" width="13"/>
+    <col customWidth="1" max="37" min="37" style="1" width="13"/>
+    <col customWidth="1" max="38" min="38" style="1" width="13"/>
+    <col customWidth="1" max="39" min="39" style="1" width="13"/>
+    <col customWidth="1" max="40" min="40" style="1" width="13"/>
+    <col customWidth="1" max="41" min="41" style="1" width="13"/>
+    <col customWidth="1" max="42" min="42" style="1" width="13"/>
+    <col customWidth="1" max="43" min="43" style="1" width="13"/>
+    <col customWidth="1" max="44" min="44" style="1" width="13"/>
+    <col customWidth="1" max="45" min="45" style="1" width="13"/>
+    <col customWidth="1" max="46" min="46" style="1" width="13"/>
+    <col customWidth="1" max="47" min="47" style="1" width="13"/>
+    <col customWidth="1" max="48" min="48" style="1" width="13"/>
+    <col customWidth="1" max="49" min="49" style="1" width="13"/>
+    <col customWidth="1" max="50" min="50" style="1" width="13"/>
+    <col customWidth="1" max="51" min="51" style="1" width="13"/>
+    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
         <is>
           <t>shaft_power</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="9" t="inlineStr">
         <is>
           <t>efficiency</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>power_factor</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/assets/templates/RS0005-template.a205.xlsx
+++ b/assets/templates/RS0005-template.a205.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="RS0005" sheetId="1" state="visible" r:id="rId1"/>
@@ -80,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -88,6 +88,7 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="00000000"/>
@@ -101,44 +102,111 @@
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="4"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5"/>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="5">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
       <alignment textRotation="45"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment textRotation="45"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
-    <cellStyle hidden="0" name="Title" xfId="1"/>
-    <cellStyle hidden="0" name="Heading" xfId="2"/>
-    <cellStyle hidden="0" name="Schema" xfId="3"/>
-    <cellStyle hidden="0" name="Value" xfId="4"/>
-    <cellStyle hidden="0" name="Grid Variables" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Title" xfId="1" hidden="0"/>
+    <cellStyle name="Heading" xfId="2" hidden="0"/>
+    <cellStyle name="Schema" xfId="3" hidden="0"/>
+    <cellStyle name="Value" xfId="4" hidden="0"/>
+    <cellStyle name="Grid Variables" xfId="5" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -148,112 +216,117 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>ASHRAE 205 standard version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
-      <text>
-        <t>ASHRAE 205 schema version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification identifier</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Metadata data group</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Data model name</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Schema name or identifier</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>The version of the schema the data complies with</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
-      <text>
-        <t>Free-form identification of the source of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
-      <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Source(s) of the data</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A15" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
-      <text>
-        <t>Name of the manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>Model number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
-      <text>
-        <t>Input voltage</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
-        <t>Input frequency</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <t>Nominal voltage</t>
+      </text>
+    </comment>
+    <comment ref="B19" authorId="0" shapeId="0">
+      <text>
+        <t>Nominal frequency</t>
+      </text>
+    </comment>
+    <comment ref="A20" authorId="0" shapeId="0">
+      <text>
+        <t>Data group containing performance information</t>
+      </text>
+    </comment>
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum operational input power to the motor</t>
+      </text>
+    </comment>
+    <comment ref="B22" authorId="0" shapeId="0">
+      <text>
+        <t>Power draw when motor is not operating</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
       <text>
         <t>Number of poles</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A21" shapeId="0">
-      <text>
-        <t>Data group containing performance information</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
-      <text>
-        <t>Maximum operational input power to the motor</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
-        <t>Power draw when motor is not operating</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A24" shapeId="0">
+    <comment ref="A24" authorId="0" shapeId="0">
       <text>
         <t>The corresponding Standard 205 drive representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A25" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0">
       <text>
         <t>Data group describing motor performance when operating</t>
       </text>
@@ -268,97 +341,102 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>ASHRAE 205 standard version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B4" shapeId="0">
-      <text>
-        <t>ASHRAE 205 schema version</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B5" shapeId="0">
-      <text>
-        <t>Representation specification identifier</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Metadata data group</t>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0">
+      <text>
+        <t>Data model name</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>Schema name or identifier</t>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <t>The version of the schema the data complies with</t>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
+    <comment ref="B8" authorId="0" shapeId="0">
+      <text>
+        <t>Description of data (suitable for display)</t>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
+    <comment ref="B10" authorId="0" shapeId="0">
       <text>
         <t>Integer version identifier for the data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B10" shapeId="0">
-      <text>
-        <t>Free-form identification of the source of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
-      <text>
-        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
+      <text>
+        <t>Source(s) of the data</t>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <t>Characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A14" shapeId="0">
+    <comment ref="A14" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product and rating information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A15" shapeId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <t>Data group describing product information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B16" shapeId="0">
-      <text>
-        <t>Name of the manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
+      <text>
+        <t>Manufacturer name</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <t>Model number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A18" shapeId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment ref="B19" authorId="0" shapeId="0">
       <text>
         <t>Maximum power draw of the drive</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <t>Power draw when the motor is not operating</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
-      <text>
-        <t>Method used to cool the electronic drive.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A22" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
+      <text>
+        <t>Method used to cool the drive</t>
+      </text>
+    </comment>
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <t>Data group describing drive performance when operating</t>
       </text>
@@ -373,22 +451,27 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group describing grid variables for drive performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Data group describing lookup variables for drive performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Power delivered to the motor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Frequency delivered to the motor</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Efficiency of drive</t>
       </text>
@@ -403,27 +486,32 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <t>Data group describing grid variables for motor performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B2" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <t>Data group describing lookup variables for motor performance</t>
       </text>
     </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0">
       <text>
         <t>Delivered rotational shaft power</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Rotational speed of shaft</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <t>Efficiency of motor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Power factor of the motor</t>
       </text>
@@ -729,58 +817,58 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -869,12 +957,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>standard_version</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
@@ -887,14 +975,10 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+          <t>data_model</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -906,14 +990,10 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>RS_ID</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>RS0005</t>
-        </is>
-      </c>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -925,10 +1005,14 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n"/>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="6" t="inlineStr">
         <is>
@@ -940,7 +1024,7 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="C7" s="5" t="n"/>
@@ -955,7 +1039,7 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="C8" s="5" t="n"/>
@@ -970,7 +1054,7 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>data_version</t>
+          <t>data_timestamp</t>
         </is>
       </c>
       <c r="C9" s="5" t="n"/>
@@ -985,18 +1069,22 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>data_source</t>
+          <t>data_version</t>
         </is>
       </c>
       <c r="C10" s="5" t="n"/>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="C11" s="5" t="n"/>
@@ -1007,7 +1095,7 @@
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t>disclaimer</t>
         </is>
       </c>
       <c r="C12" s="5" t="n"/>
@@ -1015,24 +1103,20 @@
       <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n"/>
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
       <c r="C13" s="5" t="n"/>
       <c r="D13" s="4" t="n"/>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -1043,7 +1127,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.description.product_information</t>
+          <t>description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -1055,37 +1139,29 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        manufacturer</t>
+          <t xml:space="preserve">    manufacturer</t>
         </is>
       </c>
       <c r="C16" s="5" t="n"/>
       <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        model_number</t>
+          <t xml:space="preserve">    model_number</t>
         </is>
       </c>
       <c r="C17" s="5" t="n"/>
       <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="n"/>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        input_voltage</t>
+          <t xml:space="preserve">    nominal_voltage</t>
         </is>
       </c>
       <c r="C18" s="5" t="n"/>
@@ -1094,17 +1170,13 @@
           <t>V</t>
         </is>
       </c>
-      <c r="E18" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E18" s="6" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        input_frequency</t>
+          <t xml:space="preserve">    nominal_frequency</t>
         </is>
       </c>
       <c r="C19" s="5" t="n"/>
@@ -1113,32 +1185,36 @@
           <t>Hz</t>
         </is>
       </c>
-      <c r="E19" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E19" s="6" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="n"/>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        number_of_poles</t>
-        </is>
-      </c>
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n"/>
       <c r="C20" s="5" t="n"/>
       <c r="D20" s="4" t="n"/>
-      <c r="E20" s="6" t="n"/>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.performance</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="n"/>
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>maximum_power</t>
+        </is>
+      </c>
       <c r="C21" s="5" t="n"/>
-      <c r="D21" s="4" t="n"/>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1149,7 +1225,7 @@
       <c r="A22" s="4" t="n"/>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    maximum_power</t>
+          <t>standby_power</t>
         </is>
       </c>
       <c r="C22" s="5" t="n"/>
@@ -1168,15 +1244,11 @@
       <c r="A23" s="4" t="n"/>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    standby_power</t>
+          <t>number_of_poles</t>
         </is>
       </c>
       <c r="C23" s="5" t="n"/>
-      <c r="D23" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
+      <c r="D23" s="4" t="n"/>
       <c r="E23" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1186,7 +1258,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.drive_representation</t>
+          <t>performance.drive_representation</t>
         </is>
       </c>
       <c r="B24" s="4" t="n"/>
@@ -1201,7 +1273,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map</t>
+          <t>performance.performance_map</t>
         </is>
       </c>
       <c r="B25" s="4" t="n"/>
@@ -1214,19 +1286,16 @@
       <c r="E25" s="6" t="n"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
-      <formula1>"PPR2"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+  <dataValidations count="1">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C24" r:id="rId1"/>
     <hyperlink ref="C25" r:id="rId2"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1245,64 +1314,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="50"/>
-    <col customWidth="1" max="3" min="3" style="1" width="31"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.drive_representation</t>
+          <t>performance.drive_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1385,12 +1454,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="n"/>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        standard_version</t>
-        </is>
-      </c>
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>performance.drive_representation.metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
       <c r="C3" s="5" t="n"/>
       <c r="D3" s="4" t="n"/>
       <c r="E3" s="6" t="inlineStr">
@@ -1403,14 +1472,10 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        schema_version</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
+          <t xml:space="preserve">        data_model</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
       <c r="D4" s="4" t="n"/>
       <c r="E4" s="6" t="inlineStr">
         <is>
@@ -1422,14 +1487,10 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        RS_ID</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>RS0006</t>
-        </is>
-      </c>
+          <t xml:space="preserve">        schema</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="6" t="inlineStr">
         <is>
@@ -1441,10 +1502,14 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        description</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="n"/>
+          <t xml:space="preserve">        schema_version</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
       <c r="D6" s="4" t="n"/>
       <c r="E6" s="6" t="inlineStr">
         <is>
@@ -1456,7 +1521,7 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ID</t>
+          <t xml:space="preserve">        id</t>
         </is>
       </c>
       <c r="C7" s="5" t="n"/>
@@ -1471,7 +1536,7 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_timestamp</t>
+          <t xml:space="preserve">        description</t>
         </is>
       </c>
       <c r="C8" s="5" t="n"/>
@@ -1486,7 +1551,7 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_version</t>
+          <t xml:space="preserve">        data_timestamp</t>
         </is>
       </c>
       <c r="C9" s="5" t="n"/>
@@ -1501,18 +1566,22 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data_source</t>
+          <t xml:space="preserve">        data_version</t>
         </is>
       </c>
       <c r="C10" s="5" t="n"/>
       <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        disclaimer</t>
+          <t xml:space="preserve">        data_source</t>
         </is>
       </c>
       <c r="C11" s="5" t="n"/>
@@ -1523,7 +1592,7 @@
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">        notes</t>
+          <t xml:space="preserve">        disclaimer</t>
         </is>
       </c>
       <c r="C12" s="5" t="n"/>
@@ -1531,24 +1600,20 @@
       <c r="E12" s="6" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>RS_instance.performance.drive_representation.RS_instance</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n"/>
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        notes</t>
+        </is>
+      </c>
       <c r="C13" s="5" t="n"/>
       <c r="D13" s="4" t="n"/>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="6" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.drive_representation.RS_instance.description</t>
+          <t>performance.drive_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -1559,7 +1624,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.drive_representation.RS_instance.description.product_information</t>
+          <t>performance.drive_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -1571,36 +1636,28 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    manufacturer</t>
+          <t xml:space="preserve">            manufacturer</t>
         </is>
       </c>
       <c r="C16" s="5" t="n"/>
       <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E16" s="6" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="n"/>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    model_number</t>
+          <t xml:space="preserve">            model_number</t>
         </is>
       </c>
       <c r="C17" s="5" t="n"/>
       <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="6" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.drive_representation.RS_instance.performance</t>
+          <t>performance.drive_representation.performance</t>
         </is>
       </c>
       <c r="B18" s="4" t="n"/>
@@ -1616,7 +1673,7 @@
       <c r="A19" s="4" t="n"/>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                maximum_power</t>
+          <t xml:space="preserve">        maximum_power</t>
         </is>
       </c>
       <c r="C19" s="5" t="n"/>
@@ -1635,7 +1692,7 @@
       <c r="A20" s="4" t="n"/>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                standby_power</t>
+          <t xml:space="preserve">        standby_power</t>
         </is>
       </c>
       <c r="C20" s="5" t="n"/>
@@ -1654,7 +1711,7 @@
       <c r="A21" s="4" t="n"/>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                cooling_method</t>
+          <t xml:space="preserve">        cooling_method</t>
         </is>
       </c>
       <c r="C21" s="5" t="n"/>
@@ -1668,7 +1725,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>RS_instance.performance.drive_representation.RS_instance.performance.performance_map</t>
+          <t>performance.drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B22" s="4" t="n"/>
@@ -1685,21 +1742,18 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C3" type="list">
-      <formula1>"PPR2"</formula1>
+  <dataValidations count="2">
+    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation sqref="C21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C22" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1710,7 +1764,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1718,64 +1772,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.drive_representation.RS_instance.performance.performance_map</t>
+          <t>performance.drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1836,7 +1890,8 @@
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
@@ -1848,7 +1903,12 @@
           <t>output_power</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>output_frequency</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>efficiency</t>
         </is>
@@ -1860,7 +1920,12 @@
           <t>W</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1869,13 +1934,25 @@
     <row r="5">
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
@@ -1886,7 +1963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1894,64 +1971,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="13"/>
-    <col customWidth="1" max="2" min="2" style="1" width="13"/>
-    <col customWidth="1" max="3" min="3" style="1" width="13"/>
-    <col customWidth="1" max="4" min="4" style="1" width="13"/>
-    <col customWidth="1" max="5" min="5" style="1" width="13"/>
-    <col customWidth="1" max="6" min="6" style="1" width="13"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13"/>
-    <col customWidth="1" max="8" min="8" style="1" width="13"/>
-    <col customWidth="1" max="9" min="9" style="1" width="13"/>
-    <col customWidth="1" max="10" min="10" style="1" width="13"/>
-    <col customWidth="1" max="11" min="11" style="1" width="13"/>
-    <col customWidth="1" max="12" min="12" style="1" width="13"/>
-    <col customWidth="1" max="13" min="13" style="1" width="13"/>
-    <col customWidth="1" max="14" min="14" style="1" width="13"/>
-    <col customWidth="1" max="15" min="15" style="1" width="13"/>
-    <col customWidth="1" max="16" min="16" style="1" width="13"/>
-    <col customWidth="1" max="17" min="17" style="1" width="13"/>
-    <col customWidth="1" max="18" min="18" style="1" width="13"/>
-    <col customWidth="1" max="19" min="19" style="1" width="13"/>
-    <col customWidth="1" max="20" min="20" style="1" width="13"/>
-    <col customWidth="1" max="21" min="21" style="1" width="13"/>
-    <col customWidth="1" max="22" min="22" style="1" width="13"/>
-    <col customWidth="1" max="23" min="23" style="1" width="13"/>
-    <col customWidth="1" max="24" min="24" style="1" width="13"/>
-    <col customWidth="1" max="25" min="25" style="1" width="13"/>
-    <col customWidth="1" max="26" min="26" style="1" width="13"/>
-    <col customWidth="1" max="27" min="27" style="1" width="13"/>
-    <col customWidth="1" max="28" min="28" style="1" width="13"/>
-    <col customWidth="1" max="29" min="29" style="1" width="13"/>
-    <col customWidth="1" max="30" min="30" style="1" width="13"/>
-    <col customWidth="1" max="31" min="31" style="1" width="13"/>
-    <col customWidth="1" max="32" min="32" style="1" width="13"/>
-    <col customWidth="1" max="33" min="33" style="1" width="13"/>
-    <col customWidth="1" max="34" min="34" style="1" width="13"/>
-    <col customWidth="1" max="35" min="35" style="1" width="13"/>
-    <col customWidth="1" max="36" min="36" style="1" width="13"/>
-    <col customWidth="1" max="37" min="37" style="1" width="13"/>
-    <col customWidth="1" max="38" min="38" style="1" width="13"/>
-    <col customWidth="1" max="39" min="39" style="1" width="13"/>
-    <col customWidth="1" max="40" min="40" style="1" width="13"/>
-    <col customWidth="1" max="41" min="41" style="1" width="13"/>
-    <col customWidth="1" max="42" min="42" style="1" width="13"/>
-    <col customWidth="1" max="43" min="43" style="1" width="13"/>
-    <col customWidth="1" max="44" min="44" style="1" width="13"/>
-    <col customWidth="1" max="45" min="45" style="1" width="13"/>
-    <col customWidth="1" max="46" min="46" style="1" width="13"/>
-    <col customWidth="1" max="47" min="47" style="1" width="13"/>
-    <col customWidth="1" max="48" min="48" style="1" width="13"/>
-    <col customWidth="1" max="49" min="49" style="1" width="13"/>
-    <col customWidth="1" max="50" min="50" style="1" width="13"/>
-    <col customWidth="1" max="51" min="51" style="1" width="13"/>
-    <col customWidth="1" max="52" min="52" style="1" width="13"/>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS_instance.performance.performance_map</t>
+          <t>performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2012,12 +2089,13 @@
           <t>grid_variables</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>lookup_variables</t>
         </is>
       </c>
-      <c r="C2" s="4" t="n"/>
+      <c r="D2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2025,12 +2103,17 @@
           <t>shaft_power</t>
         </is>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>shaft_rotational_speed</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
         <is>
           <t>efficiency</t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
+      <c r="D3" s="9" t="inlineStr">
         <is>
           <t>power_factor</t>
         </is>
@@ -2042,12 +2125,17 @@
           <t>W</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2057,14 +2145,28 @@
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
--- a/assets/templates/RS0005-template.a205.xlsx
+++ b/assets/templates/RS0005-template.a205.xlsx
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0005-template.a205.xlsx
+++ b/assets/templates/RS0005-template.a205.xlsx
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0005-template.a205.xlsx
+++ b/assets/templates/RS0005-template.a205.xlsx
@@ -328,6 +328,21 @@
     </comment>
     <comment ref="A25" authorId="0" shapeId="0">
       <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B26" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B27" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="0" shapeId="0">
+      <text>
         <t>Data group describing motor performance when operating</t>
       </text>
     </comment>
@@ -438,6 +453,21 @@
     </comment>
     <comment ref="A22" authorId="0" shapeId="0">
       <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B23" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="B24" authorId="0" shapeId="0">
+      <text>
+        <t>Maximum scaling factor</t>
+      </text>
+    </comment>
+    <comment ref="A25" authorId="0" shapeId="0">
+      <text>
         <t>Data group describing drive performance when operating</t>
       </text>
     </comment>
@@ -476,6 +506,11 @@
         <t>Efficiency of drive</t>
       </text>
     </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -514,6 +549,11 @@
     <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <t>Power factor of the motor</t>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -809,6 +849,544 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AZ28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="50" customWidth="1" style="1" min="2" max="2"/>
+    <col width="31" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>RS0005: Motor</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>metadata</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n"/>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>data_model</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="n"/>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>schema</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n"/>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>schema_version</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>2.0.0</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="n"/>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n"/>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n"/>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="4" t="n"/>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n"/>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="4" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>data_source</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="4" t="n"/>
+      <c r="E11" s="6" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="n"/>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n"/>
+      <c r="D12" s="4" t="n"/>
+      <c r="E12" s="6" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="n"/>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="4" t="n"/>
+      <c r="E13" s="6" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="4" t="n"/>
+      <c r="E14" s="6" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>description.product_information</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n"/>
+      <c r="C15" s="5" t="n"/>
+      <c r="D15" s="4" t="n"/>
+      <c r="E15" s="6" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n"/>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    manufacturer</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n"/>
+      <c r="D16" s="4" t="n"/>
+      <c r="E16" s="6" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n"/>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    model_number</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n"/>
+      <c r="D17" s="4" t="n"/>
+      <c r="E17" s="6" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n"/>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    nominal_voltage</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n"/>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E18" s="6" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="n"/>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    nominal_frequency</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="E19" s="6" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n"/>
+      <c r="C20" s="5" t="n"/>
+      <c r="D20" s="4" t="n"/>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="n"/>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>maximum_power</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n"/>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="n"/>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>standby_power</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>number_of_poles</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>performance.drive_representation</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="n"/>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>$drive_representation</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="n"/>
+      <c r="E24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="n"/>
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="n"/>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E26" s="6" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="n"/>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    maximum</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n"/>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E27" s="6" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="n"/>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map0</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="n"/>
+      <c r="E28" s="6" t="n"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="C24" r:id="rId1"/>
+    <hyperlink ref="C28" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AZ25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -874,7 +1452,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>RS0005: Motor</t>
+          <t>performance.drive_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -959,7 +1537,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>metadata</t>
+          <t>performance.drive_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -975,7 +1553,7 @@
       <c r="A4" s="4" t="n"/>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>data_model</t>
+          <t xml:space="preserve">        data_model</t>
         </is>
       </c>
       <c r="C4" s="5" t="n"/>
@@ -990,7 +1568,7 @@
       <c r="A5" s="4" t="n"/>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>schema</t>
+          <t xml:space="preserve">        schema</t>
         </is>
       </c>
       <c r="C5" s="5" t="n"/>
@@ -1005,12 +1583,12 @@
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>schema_version</t>
+          <t xml:space="preserve">        schema_version</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1024,7 +1602,7 @@
       <c r="A7" s="4" t="n"/>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>id</t>
+          <t xml:space="preserve">        id</t>
         </is>
       </c>
       <c r="C7" s="5" t="n"/>
@@ -1039,7 +1617,7 @@
       <c r="A8" s="4" t="n"/>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>description</t>
+          <t xml:space="preserve">        description</t>
         </is>
       </c>
       <c r="C8" s="5" t="n"/>
@@ -1054,7 +1632,7 @@
       <c r="A9" s="4" t="n"/>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t xml:space="preserve">        data_timestamp</t>
         </is>
       </c>
       <c r="C9" s="5" t="n"/>
@@ -1069,7 +1647,7 @@
       <c r="A10" s="4" t="n"/>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>data_version</t>
+          <t xml:space="preserve">        data_version</t>
         </is>
       </c>
       <c r="C10" s="5" t="n"/>
@@ -1084,7 +1662,7 @@
       <c r="A11" s="4" t="n"/>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>data_source</t>
+          <t xml:space="preserve">        data_source</t>
         </is>
       </c>
       <c r="C11" s="5" t="n"/>
@@ -1095,7 +1673,7 @@
       <c r="A12" s="4" t="n"/>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t xml:space="preserve">        disclaimer</t>
         </is>
       </c>
       <c r="C12" s="5" t="n"/>
@@ -1106,7 +1684,7 @@
       <c r="A13" s="4" t="n"/>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>notes</t>
+          <t xml:space="preserve">        notes</t>
         </is>
       </c>
       <c r="C13" s="5" t="n"/>
@@ -1116,7 +1694,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>performance.drive_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -1127,7 +1705,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>description.product_information</t>
+          <t>performance.drive_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -1139,503 +1717,6 @@
       <c r="A16" s="4" t="n"/>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    manufacturer</t>
-        </is>
-      </c>
-      <c r="C16" s="5" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="6" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="n"/>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    model_number</t>
-        </is>
-      </c>
-      <c r="C17" s="5" t="n"/>
-      <c r="D17" s="4" t="n"/>
-      <c r="E17" s="6" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="n"/>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    nominal_voltage</t>
-        </is>
-      </c>
-      <c r="C18" s="5" t="n"/>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="E18" s="6" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="n"/>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    nominal_frequency</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n"/>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>Hz</t>
-        </is>
-      </c>
-      <c r="E19" s="6" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n"/>
-      <c r="C20" s="5" t="n"/>
-      <c r="D20" s="4" t="n"/>
-      <c r="E20" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="n"/>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>maximum_power</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n"/>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="n"/>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>standby_power</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n"/>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E22" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="n"/>
-      <c r="B23" s="4" t="inlineStr">
-        <is>
-          <t>number_of_poles</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n"/>
-      <c r="D23" s="4" t="n"/>
-      <c r="E23" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>performance.drive_representation</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="n"/>
-      <c r="C24" s="5" t="inlineStr">
-        <is>
-          <t>$drive_representation</t>
-        </is>
-      </c>
-      <c r="D24" s="4" t="n"/>
-      <c r="E24" s="6" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>performance.performance_map</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="n"/>
-      <c r="C25" s="5" t="inlineStr">
-        <is>
-          <t>$performance_map0</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="n"/>
-      <c r="E25" s="6" t="n"/>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C24" r:id="rId1"/>
-    <hyperlink ref="C25" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AZ22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="13" customWidth="1" style="1" min="1" max="1"/>
-    <col width="50" customWidth="1" style="1" min="2" max="2"/>
-    <col width="31" customWidth="1" style="1" min="3" max="3"/>
-    <col width="13" customWidth="1" style="1" min="4" max="4"/>
-    <col width="13" customWidth="1" style="1" min="5" max="5"/>
-    <col width="13" customWidth="1" style="1" min="6" max="6"/>
-    <col width="13" customWidth="1" style="1" min="7" max="7"/>
-    <col width="13" customWidth="1" style="1" min="8" max="8"/>
-    <col width="13" customWidth="1" style="1" min="9" max="9"/>
-    <col width="13" customWidth="1" style="1" min="10" max="10"/>
-    <col width="13" customWidth="1" style="1" min="11" max="11"/>
-    <col width="13" customWidth="1" style="1" min="12" max="12"/>
-    <col width="13" customWidth="1" style="1" min="13" max="13"/>
-    <col width="13" customWidth="1" style="1" min="14" max="14"/>
-    <col width="13" customWidth="1" style="1" min="15" max="15"/>
-    <col width="13" customWidth="1" style="1" min="16" max="16"/>
-    <col width="13" customWidth="1" style="1" min="17" max="17"/>
-    <col width="13" customWidth="1" style="1" min="18" max="18"/>
-    <col width="13" customWidth="1" style="1" min="19" max="19"/>
-    <col width="13" customWidth="1" style="1" min="20" max="20"/>
-    <col width="13" customWidth="1" style="1" min="21" max="21"/>
-    <col width="13" customWidth="1" style="1" min="22" max="22"/>
-    <col width="13" customWidth="1" style="1" min="23" max="23"/>
-    <col width="13" customWidth="1" style="1" min="24" max="24"/>
-    <col width="13" customWidth="1" style="1" min="25" max="25"/>
-    <col width="13" customWidth="1" style="1" min="26" max="26"/>
-    <col width="13" customWidth="1" style="1" min="27" max="27"/>
-    <col width="13" customWidth="1" style="1" min="28" max="28"/>
-    <col width="13" customWidth="1" style="1" min="29" max="29"/>
-    <col width="13" customWidth="1" style="1" min="30" max="30"/>
-    <col width="13" customWidth="1" style="1" min="31" max="31"/>
-    <col width="13" customWidth="1" style="1" min="32" max="32"/>
-    <col width="13" customWidth="1" style="1" min="33" max="33"/>
-    <col width="13" customWidth="1" style="1" min="34" max="34"/>
-    <col width="13" customWidth="1" style="1" min="35" max="35"/>
-    <col width="13" customWidth="1" style="1" min="36" max="36"/>
-    <col width="13" customWidth="1" style="1" min="37" max="37"/>
-    <col width="13" customWidth="1" style="1" min="38" max="38"/>
-    <col width="13" customWidth="1" style="1" min="39" max="39"/>
-    <col width="13" customWidth="1" style="1" min="40" max="40"/>
-    <col width="13" customWidth="1" style="1" min="41" max="41"/>
-    <col width="13" customWidth="1" style="1" min="42" max="42"/>
-    <col width="13" customWidth="1" style="1" min="43" max="43"/>
-    <col width="13" customWidth="1" style="1" min="44" max="44"/>
-    <col width="13" customWidth="1" style="1" min="45" max="45"/>
-    <col width="13" customWidth="1" style="1" min="46" max="46"/>
-    <col width="13" customWidth="1" style="1" min="47" max="47"/>
-    <col width="13" customWidth="1" style="1" min="48" max="48"/>
-    <col width="13" customWidth="1" style="1" min="49" max="49"/>
-    <col width="13" customWidth="1" style="1" min="50" max="50"/>
-    <col width="13" customWidth="1" style="1" min="51" max="51"/>
-    <col width="13" customWidth="1" style="1" min="52" max="52"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>performance.drive_representation</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-      <c r="E1" s="2" t="n"/>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
-      <c r="K1" s="2" t="n"/>
-      <c r="L1" s="2" t="n"/>
-      <c r="M1" s="2" t="n"/>
-      <c r="N1" s="2" t="n"/>
-      <c r="O1" s="2" t="n"/>
-      <c r="P1" s="2" t="n"/>
-      <c r="Q1" s="2" t="n"/>
-      <c r="R1" s="2" t="n"/>
-      <c r="S1" s="2" t="n"/>
-      <c r="T1" s="2" t="n"/>
-      <c r="U1" s="2" t="n"/>
-      <c r="V1" s="2" t="n"/>
-      <c r="W1" s="2" t="n"/>
-      <c r="X1" s="2" t="n"/>
-      <c r="Y1" s="2" t="n"/>
-      <c r="Z1" s="2" t="n"/>
-      <c r="AA1" s="2" t="n"/>
-      <c r="AB1" s="2" t="n"/>
-      <c r="AC1" s="2" t="n"/>
-      <c r="AD1" s="2" t="n"/>
-      <c r="AE1" s="2" t="n"/>
-      <c r="AF1" s="2" t="n"/>
-      <c r="AG1" s="2" t="n"/>
-      <c r="AH1" s="2" t="n"/>
-      <c r="AI1" s="2" t="n"/>
-      <c r="AJ1" s="2" t="n"/>
-      <c r="AK1" s="2" t="n"/>
-      <c r="AL1" s="2" t="n"/>
-      <c r="AM1" s="2" t="n"/>
-      <c r="AN1" s="2" t="n"/>
-      <c r="AO1" s="2" t="n"/>
-      <c r="AP1" s="2" t="n"/>
-      <c r="AQ1" s="2" t="n"/>
-      <c r="AR1" s="2" t="n"/>
-      <c r="AS1" s="2" t="n"/>
-      <c r="AT1" s="2" t="n"/>
-      <c r="AU1" s="2" t="n"/>
-      <c r="AV1" s="2" t="n"/>
-      <c r="AW1" s="2" t="n"/>
-      <c r="AX1" s="2" t="n"/>
-      <c r="AY1" s="2" t="n"/>
-      <c r="AZ1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>Data Group</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>Data Element</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Required</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>performance.drive_representation.metadata</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="4" t="n"/>
-      <c r="E3" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="n"/>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        data_model</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="4" t="n"/>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="n"/>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        schema</t>
-        </is>
-      </c>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="4" t="n"/>
-      <c r="E5" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="n"/>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        schema_version</t>
-        </is>
-      </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>1.0.0</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n"/>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="n"/>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        id</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="4" t="n"/>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="n"/>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        description</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="4" t="n"/>
-      <c r="E8" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="n"/>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        data_timestamp</t>
-        </is>
-      </c>
-      <c r="C9" s="5" t="n"/>
-      <c r="D9" s="4" t="n"/>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="n"/>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        data_version</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="n"/>
-      <c r="D10" s="4" t="n"/>
-      <c r="E10" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        data_source</t>
-        </is>
-      </c>
-      <c r="C11" s="5" t="n"/>
-      <c r="D11" s="4" t="n"/>
-      <c r="E11" s="6" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="n"/>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        disclaimer</t>
-        </is>
-      </c>
-      <c r="C12" s="5" t="n"/>
-      <c r="D12" s="4" t="n"/>
-      <c r="E12" s="6" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="n"/>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        notes</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n"/>
-      <c r="D13" s="4" t="n"/>
-      <c r="E13" s="6" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>performance.drive_representation.description</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n"/>
-      <c r="C14" s="5" t="n"/>
-      <c r="D14" s="4" t="n"/>
-      <c r="E14" s="6" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>performance.drive_representation.description.product_information</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n"/>
-      <c r="C15" s="5" t="n"/>
-      <c r="D15" s="4" t="n"/>
-      <c r="E15" s="6" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="n"/>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
           <t xml:space="preserve">            manufacturer</t>
         </is>
       </c>
@@ -1725,17 +1806,58 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
+          <t>performance.drive_representation.performance.scaling</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="4" t="n"/>
+      <c r="E22" s="6" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n"/>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            minimum</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n"/>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n"/>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            maximum</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n"/>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E24" s="6" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
           <t>performance.drive_representation.performance.performance_map</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n"/>
-      <c r="C22" s="5" t="inlineStr">
+      <c r="B25" s="4" t="n"/>
+      <c r="C25" s="5" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="6" t="inlineStr">
+      <c r="D25" s="4" t="n"/>
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -1743,15 +1865,15 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C21" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C21" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C22" r:id="rId1"/>
+    <hyperlink ref="C25" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1896,6 +2018,7 @@
           <t>lookup_variables</t>
         </is>
       </c>
+      <c r="D2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -1913,6 +2036,11 @@
           <t>efficiency</t>
         </is>
       </c>
+      <c r="D3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -1926,6 +2054,11 @@
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -1935,21 +2068,25 @@
       <c r="A5" s="5" t="n"/>
       <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
+      <c r="D5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
+      <c r="D6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
       <c r="B7" s="5" t="n"/>
       <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
       <c r="B8" s="5" t="n"/>
       <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2096,6 +2233,7 @@
         </is>
       </c>
       <c r="D2" s="4" t="n"/>
+      <c r="E2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2118,6 +2256,11 @@
           <t>power_factor</t>
         </is>
       </c>
+      <c r="E3" s="9" t="inlineStr">
+        <is>
+          <t>operation_state</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
@@ -2136,6 +2279,11 @@
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -2146,24 +2294,28 @@
       <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="n"/>
       <c r="D5" s="5" t="n"/>
+      <c r="E5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="n"/>
       <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="n"/>
       <c r="D6" s="5" t="n"/>
+      <c r="E6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="n"/>
       <c r="B7" s="5" t="n"/>
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="n"/>
       <c r="B8" s="5" t="n"/>
       <c r="C8" s="5" t="n"/>
       <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
